--- a/biology/Botanique/Bauhinia_variegata/Bauhinia_variegata.xlsx
+++ b/biology/Botanique/Bauhinia_variegata/Bauhinia_variegata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bauhinia variegata, l'Arbre à fleurs d'orchidées, (en hindi: कचनार, en sanskrit: कोविदार) est un arbre de la famille des Fabaceae originaire d'Inde, Chine et de Birmanie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se propage par graines à partir de la fin du printemps. Il est cultivé dans un sol normal, bien drainé, ensoleillé et chaud, à l'abri des vents froids. Il faut arroser les plantes jeunes en abondance en été.
 </t>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre de taille petite à moyenne pouvant atteindre 15 m de hauteur[2].
-Les feuilles, caduques lors de la saison sèche, sont portées par un pétiole qui mesure de 2,5 à 3,5 cm de long[2]. De forme globalement orbiculaire ou ovale, elles mesurent de 5 à 9 cm de long pour 7 à 11 cm de large[2]. Elles sont bilobées aussi bien à la base qu'à l'apex, l'apex pouvant être fendu sur 1/3 de la longueur de la feuille[2], et portent entre 9 et 13 nervures primaires[2].
-L'inflorescence est une grappe apparaissant sur les rameaux en position terminale ou axillaire, chaque grappe n'étant composée que d’un petit nombre de fleurs. Ces fleurs sont soit rose vif ou roses, parfois tachées de pourpre (Bauhinia variegata var. variegata), soit blanches (Bauhinia variegata var. candida) de 8 à 12 cm de diamètre[réf. nécessaire]. La fleur présente un calice en deux lobes ressemblant à un spathe. Les cinq pétales de la corolle ont une base très étroite, sont de forme obovale ou oblancéolée et mesurent 4 ou 5 cm de long[2]. L'androcée est composée de 5 étamines fertiles aussi longues que les pétales et de 0 à 5 staminodes plus courts[2]. L'ovaire est porté par un court pédoncule et présente un petit stigmate au bout d'un style de forme incurvée.
-Le fruit est une gousse de 15 à 25 cm de long pour 1,5 à 2 cm de large[2], aplatie et de forme linéaire, aux valves coriaces. Chaque gousse contient de 10 à 15 graines d'environ 1 cm de diamètre[2].
-Chez cette espèce, la formule chromosomique est 2n = 28[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre de taille petite à moyenne pouvant atteindre 15 m de hauteur.
+Les feuilles, caduques lors de la saison sèche, sont portées par un pétiole qui mesure de 2,5 à 3,5 cm de long. De forme globalement orbiculaire ou ovale, elles mesurent de 5 à 9 cm de long pour 7 à 11 cm de large. Elles sont bilobées aussi bien à la base qu'à l'apex, l'apex pouvant être fendu sur 1/3 de la longueur de la feuille, et portent entre 9 et 13 nervures primaires.
+L'inflorescence est une grappe apparaissant sur les rameaux en position terminale ou axillaire, chaque grappe n'étant composée que d’un petit nombre de fleurs. Ces fleurs sont soit rose vif ou roses, parfois tachées de pourpre (Bauhinia variegata var. variegata), soit blanches (Bauhinia variegata var. candida) de 8 à 12 cm de diamètre[réf. nécessaire]. La fleur présente un calice en deux lobes ressemblant à un spathe. Les cinq pétales de la corolle ont une base très étroite, sont de forme obovale ou oblancéolée et mesurent 4 ou 5 cm de long. L'androcée est composée de 5 étamines fertiles aussi longues que les pétales et de 0 à 5 staminodes plus courts. L'ovaire est porté par un court pédoncule et présente un petit stigmate au bout d'un style de forme incurvée.
+Le fruit est une gousse de 15 à 25 cm de long pour 1,5 à 2 cm de large, aplatie et de forme linéaire, aux valves coriaces. Chaque gousse contient de 10 à 15 graines d'environ 1 cm de diamètre.
+Chez cette espèce, la formule chromosomique est 2n = 28.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est native des forêts tropicales du sud-est de l'Asie (sud de la Chine, Cambodge, Laos, Myanmar, Thaïlande, Vietnam) mais est cultivée dans d’autres régions tropicales ou subtropicales.
 </t>
@@ -610,17 +628,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liste des variétés
-Selon Tropicos                                           (6 avril 2014)[3] (Attention liste brute contenant possiblement des synonymes) :
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 avril 2014) (Attention liste brute contenant possiblement des synonymes) :
 Bauhinia variegata var. alboflava de Wit
 Bauhinia variegata var. candida (Aiton) Buch.-Ham.
 Bauhinia variegata var. chinensis DC.
-Bauhinia variegata var. variegata L.
-Synonymes
-Bauhinia chinensis Vogel
-Bauhinia decora Uribe (es)
-Bauhinia variegata var. chinensis DC.
-Phanera variegata (L.) Benth.</t>
+Bauhinia variegata var. variegata L.</t>
         </is>
       </c>
     </row>
@@ -645,10 +663,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique et appellations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bauhinia chinensis Vogel
+Bauhinia decora Uribe (es)
+Bauhinia variegata var. chinensis DC.
+Phanera variegata (L.) Benth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bauhinia_variegata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bauhinia_variegata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles tendres et les bourgeons sont mangées en salade.
 Pour les bouddhistes, c'est une espèce sacrée, se voyant fréquemment dans leurs images de dévotion.
